--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4140426.771475968</v>
+        <v>4158801.460942091</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051496</v>
+        <v>682213.8818051494</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7788079648764</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>19.65541699476269</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>22.28704139029322</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481177</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>144.5425776078363</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>311.3126279457165</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>56.74895840592247</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>27.61199297579804</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>240.0170651599449</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>335.3965886158488</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>174.8813118982894</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>126.7664547002298</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113179</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>161.1706059301397</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>143.3158222056514</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>53.18663863928347</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.45373134607569</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.6936634442301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.62275566270739</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,7 +2530,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>10.34713777957299</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>179.808887609863</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>150.7261491104435</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>6.179638900301809</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522968</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898732</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857185</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692866</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329074</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373709</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789589</v>
+        <v>80.78193823789562</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463147</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415228</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689369</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593936</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941874</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346315</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,19 +3478,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069491</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539622</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522968</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898732</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857185</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692866</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329074</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373405</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789562</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463173</v>
+        <v>42.28735533463147</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415228</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689369</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>64.63350838933444</v>
       </c>
       <c r="X46" t="n">
-        <v>24.77826559155619</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>709.2075429298498</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="C2" t="n">
-        <v>340.245025989438</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="D2" t="n">
-        <v>340.245025989438</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1229.941371236149</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>818.9554664465411</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>400.991658344728</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>73.79693838073081</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.946714969783</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1095.807382993971</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0273259635867</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="C4" t="n">
-        <v>184.0273259635867</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>245.4549451025302</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.280783616703</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762915</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2496.117797904436</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2496.117797904436</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2496.117797904436</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>2165.054910560866</v>
       </c>
       <c r="W5" t="n">
-        <v>2151.485713917717</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="X5" t="n">
-        <v>1778.019955656637</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1387.880623680825</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>259.1782556107601</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>111.2651620283669</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>111.2651620283669</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>111.2651620283669</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>111.2651620283669</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>700.2380822106784</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>700.2380822106784</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>700.2380822106784</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>411.0644718652463</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>411.0644718652463</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>411.0644718652463</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>411.0644718652463</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>409.2948950230958</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1156.179761166175</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1156.179761166175</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>797.9140625594248</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,16 +4799,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491377</v>
+        <v>2127.158480917584</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230297</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1542.779601230297</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.8327295799423</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799423</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799423</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799423</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>551.4811944101821</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>551.4811944101821</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>551.4811944101821</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>551.4811944101821</v>
+        <v>409.2948950230959</v>
       </c>
       <c r="X10" t="n">
-        <v>551.4811944101821</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.4811944101821</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028587</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>241.9805482336712</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>638.3691419079764</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>617.1460235486118</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>467.029384136276</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>319.1162905538829</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1483.306440915402</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1483.306440915402</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1194.17780212896</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>939.4933139230729</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>650.0761438861124</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X16" t="n">
-        <v>650.0761438861124</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.2835647425823</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,10 +5504,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1722.015429253975</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>657.199424285124</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>657.199424285124</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>820.5263570570736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>820.5263570570736</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>657.199424285124</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5783,13 +5783,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108312</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3033.644633014776</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>3802.012779407238</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>4131.87540707127</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O21" t="n">
-        <v>4411.415472289968</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,10 +5978,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -6011,7 +6011,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2520.760934363149</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
         <v>265.3924131404652</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383442</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="W25" t="n">
-        <v>675.0071030383442</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X25" t="n">
-        <v>447.0175521403269</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,7 +6248,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>712.4440896858632</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C28" t="n">
-        <v>560.1954542207687</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6415,19 +6415,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>1181.679097540026</v>
       </c>
       <c r="V28" t="n">
-        <v>933.2366688293934</v>
+        <v>1181.679097540026</v>
       </c>
       <c r="W28" t="n">
-        <v>933.2366688293934</v>
+        <v>892.2619275030652</v>
       </c>
       <c r="X28" t="n">
-        <v>933.2366688293934</v>
+        <v>892.2619275030652</v>
       </c>
       <c r="Y28" t="n">
-        <v>712.4440896858632</v>
+        <v>892.2619275030652</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,43 +6446,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L30" t="n">
-        <v>732.169830515405</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229681</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506733</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103132</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859415</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862495</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045221</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010328</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6783,16 +6783,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>638.3691419079764</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506722</v>
@@ -6844,7 +6844,7 @@
         <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
         <v>221.529509210313</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1427.741252113634</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>1757.603879777666</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>2037.143944996363</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3481.793971740472</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>3381.677879852606</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>3300.381331480311</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>3221.288328937959</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>3143.21847248009</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>3043.863241839951</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>2962.265324427935</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I37" t="n">
-        <v>2919.550824089924</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>2999.384087782178</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>3217.020063255134</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>3532.182679494607</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>3871.199993490134</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>4209.194673746026</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>4510.520222979767</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>4754.570558813793</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>4818.59956061616</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>4687.499641571753</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>4532.534317401301</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>4312.2257696549</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>4126.361372489054</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>3905.764293492135</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>3746.594833634159</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>3594.62234553067</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2391.668904819565</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2540.738589021625</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>2787.503716928089</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3094.82385020805</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>3899.235428472201</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.72167055707</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7312,16 +7312,16 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,10 +7330,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7357,22 +7357,22 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010318</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,13 +7400,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.010087623274</v>
+        <v>2312.465467126435</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2517.487947908644</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.460239110831</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222965</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506702</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083181</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504486</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103132</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982977</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859415</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862495</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.261101004519</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010299</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,7 +7658,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>806.1650729342607</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1113.485206214222</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1133.156678913841</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>843.7395088768803</v>
+        <v>1144.501259661022</v>
       </c>
       <c r="X46" t="n">
-        <v>818.7109577742983</v>
+        <v>916.5117087630043</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>916.5117087630043</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.6414676374722</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050815</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>360.5026862907256</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119852</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>253.7371603504736</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9480,25 +9480,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P21" t="n">
-        <v>158.8724419039323</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,19 +9723,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>15.83804904622824</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L30" t="n">
-        <v>199.6230805871087</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10431,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>297.2466435761031</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>15.8380490462279</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>230.7151863772038</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>19.14409596997011</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>9.900512684485363</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>5.322962533237842</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.26883114644335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>92.23440938364777</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>182.4670786375275</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>56.89098990786471</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.20922451922991</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.8902146190043</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.77576574223178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>16.52067198818432</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24655,19 +24655,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>280.0577134982755</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,19 +26077,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>221.8894899472565</v>
       </c>
       <c r="X46" t="n">
-        <v>200.931389797481</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615059.3414682897</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644297.0792599391</v>
+        <v>644297.0792599393</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644297.0792599393</v>
+        <v>644297.0792599391</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="H2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
         <v>782058.1194754178</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371235</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.33279362275</v>
       </c>
       <c r="L4" t="n">
-        <v>53757.15203161967</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="M4" t="n">
-        <v>53757.15203161968</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="N4" t="n">
-        <v>53757.15203161969</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="O4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.33279362276</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230237</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,10 +26503,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28804.28589893933</v>
+        <v>-26275.96473549679</v>
       </c>
       <c r="C6" t="n">
-        <v>561163.5933156051</v>
+        <v>563691.9144790475</v>
       </c>
       <c r="D6" t="n">
-        <v>561163.5933156048</v>
+        <v>563691.9144790478</v>
       </c>
       <c r="E6" t="n">
-        <v>133572.3922595052</v>
+        <v>135607.2114975028</v>
       </c>
       <c r="F6" t="n">
-        <v>658732.4287364018</v>
+        <v>660767.247974399</v>
       </c>
       <c r="G6" t="n">
-        <v>658732.428736402</v>
+        <v>660767.2479743989</v>
       </c>
       <c r="H6" t="n">
-        <v>658732.4287364018</v>
+        <v>660767.2479743988</v>
       </c>
       <c r="I6" t="n">
-        <v>658732.428736402</v>
+        <v>660767.2479743988</v>
       </c>
       <c r="J6" t="n">
-        <v>482309.2095438091</v>
+        <v>484344.0287818057</v>
       </c>
       <c r="K6" t="n">
-        <v>615063.999908927</v>
+        <v>617098.8191469242</v>
       </c>
       <c r="L6" t="n">
-        <v>669569.5120126393</v>
+        <v>671604.3312506363</v>
       </c>
       <c r="M6" t="n">
-        <v>534768.4967788022</v>
+        <v>536803.3160167993</v>
       </c>
       <c r="N6" t="n">
-        <v>669569.5120126393</v>
+        <v>671604.3312506363</v>
       </c>
       <c r="O6" t="n">
-        <v>669569.5120126395</v>
+        <v>671604.3312506365</v>
       </c>
       <c r="P6" t="n">
-        <v>658732.4287364018</v>
+        <v>660767.2479743987</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>68.13189012964051</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="L2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964044</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964044</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>119.1515621073854</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>132.2758992500985</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.83197231642228</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>123.134006632638</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>29.87313520113517</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>37.92834077169653</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>78.21666338641576</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.0531990043598</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>141.9133049123169</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>13.84438010156418</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>50.15379355979488</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>98.94320068880734</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964051</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770686</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>670.9270633411919</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,13 +35504,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35963,25 +35963,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P21" t="n">
-        <v>365.965856835457</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.8510818313024</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L30" t="n">
-        <v>448.880785543133</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520604</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502434</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>504.3400585076278</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>57.74822800113458</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,16 +37868,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>107.1571287550442</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520604</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502434</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>259.1582176405097</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4158801.460942091</v>
+        <v>4230453.253502138</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7311457.08035271</v>
+        <v>7216349.556204976</v>
       </c>
     </row>
     <row r="11">
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19.65541699476269</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>252.7643836076984</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>22.28704139029322</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120.2570633735995</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>144.5425776078363</v>
+        <v>69.0708624534348</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>56.74895840592247</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>213.6743229269902</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>270.6264399173907</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>335.3965886158488</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>15.05304567149832</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>126.7664547002298</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>161.1706059301397</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>240.7521808749671</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>53.18663863928347</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>215.7053919670787</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>112.4346037011847</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>77.66409633701822</v>
       </c>
       <c r="S22" t="n">
-        <v>183.1796758467</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>104.7919727697741</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>10.34713777957299</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>79.06553162826584</v>
       </c>
       <c r="U28" t="n">
-        <v>6.179638900301809</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522968</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898732</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857185</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692866</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329074</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373709</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789562</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463147</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415228</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539627</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287487</v>
+        <v>147.0038766127622</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689369</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069505</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593936</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224543</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373698</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539627</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689361</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560529</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346315</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539622</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689368</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522968</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898732</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692866</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329074</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373405</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789562</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463147</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415228</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539627</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287487</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689369</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069505</v>
+        <v>161.6936634442302</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593966</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>64.63350838933444</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.941371236149</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>1229.941371236149</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1229.941371236149</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.941371236149</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>818.9554664465411</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>400.991658344728</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>73.79693838073081</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.4549451025302</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C4" t="n">
-        <v>245.4549451025302</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D4" t="n">
-        <v>245.4549451025302</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="E4" t="n">
-        <v>245.4549451025302</v>
+        <v>175.4147630058185</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>175.4147630058185</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>175.4147630058185</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>175.4147630058185</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>245.4549451025302</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.4549451025302</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="5">
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2496.117797904436</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="T5" t="n">
-        <v>2496.117797904436</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="U5" t="n">
-        <v>2496.117797904436</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="V5" t="n">
-        <v>2165.054910560866</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="W5" t="n">
-        <v>1812.286255290752</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="X5" t="n">
-        <v>1812.286255290752</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.2948950230958</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>409.2948950230958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>259.1782556107601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>111.2651620283669</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>111.2651620283669</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>111.2651620283669</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>111.2651620283669</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230958</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.2948950230958</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2127.158480917584</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.692722656504</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>683.5069684221791</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600565</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230959</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X10" t="n">
-        <v>281.2479710834698</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.2479710834698</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,13 +5041,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,7 +5062,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5072,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5126,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.0685056491545</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C13" t="n">
-        <v>410.1323227212476</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>260.0156833089119</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>260.0156833089119</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>260.0156833089119</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1055.812239387629</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229244</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7169704793943</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,13 +5278,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5309,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5363,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>786.0822064765186</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>617.1460235486118</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>467.029384136276</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>319.1162905538829</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1281.032036247722</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>991.90339746128</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765186</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="X16" t="n">
-        <v>786.0822064765186</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y16" t="n">
-        <v>786.0822064765186</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,7 +5518,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5534,7 +5536,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5552,7 +5554,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5595,22 +5597,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678162</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O18" t="n">
-        <v>1841.189502980821</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2361.490124716568</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>807.3465877976912</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>638.4104048697843</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>638.4104048697843</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>490.4973112873912</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>490.4973112873912</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>322.3219896072118</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>988.9950526279309</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1420.467688399299</v>
       </c>
       <c r="S22" t="n">
-        <v>1313.886294955175</v>
+        <v>1220.547678314851</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.100879744681</v>
+        <v>1220.547678314851</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1220.547678314851</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>965.863190108964</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>965.863190108964</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>965.863190108964</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6156,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="U25" t="n">
-        <v>1064.759190940159</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="V25" t="n">
-        <v>1064.759190940159</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="W25" t="n">
-        <v>1064.759190940159</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="X25" t="n">
-        <v>836.769640042142</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.9770608986119</v>
+        <v>1061.198110430972</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,28 +6211,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6245,10 +6247,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6266,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>592.8217113586352</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.679097540026</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="V28" t="n">
-        <v>1181.679097540026</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W28" t="n">
-        <v>892.2619275030652</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X28" t="n">
-        <v>892.2619275030652</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.2619275030652</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6458,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6539,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
         <v>2016.139981183168</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108341</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229681</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506733</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083211</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504517</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982975</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254954</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649689</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116387</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350128</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184155</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384655</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942115</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771662</v>
+        <v>1150.507496218139</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025261</v>
+        <v>1150.507496218139</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859415</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862495</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045221</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010328</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6722,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6776,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6928,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,37 +6937,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6980,7 +6982,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982975</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7257,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7402,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>2032.925401907738</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2312.465467126435</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2517.487947908644</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110831</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222965</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506702</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083181</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504486</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103132</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525398</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384655</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025261</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859415</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862495</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004519</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010299</v>
+        <v>657.1994242851239</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.501259661022</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>916.5117087630043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.5117087630043</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9173,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9243,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>306.114737013995</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.7176547498452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>308.1251096272028</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,22 +10427,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>104.6241510367947</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.14409596997011</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>5.322962533237842</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>11.38546244886086</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>92.23440938364777</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>5.842169091310524</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>36.47922466635144</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>32.30025606677455</v>
       </c>
       <c r="S22" t="n">
-        <v>14.74113413690324</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>93.12883721382917</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>275.8902146190043</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>142.4820294301234</v>
       </c>
       <c r="U28" t="n">
-        <v>280.0577134982755</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>74.54368444562706</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>61.34209567542524</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>124.8293348923608</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>221.8894899472565</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682897</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682897</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644297.0792599393</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644297.0792599393</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644297.0792599393</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644297.0792599393</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644297.0792599391</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
         <v>782058.1194754179</v>
       </c>
       <c r="G2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="H2" t="n">
         <v>782058.1194754179</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.1194754177</v>
       </c>
       <c r="I2" t="n">
         <v>782058.1194754177</v>
@@ -26338,22 +26340,22 @@
         <v>782058.1194754178</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.7698642847</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642844</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642847</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642844</v>
+        <v>782058.119475418</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642847</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371235</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26423,19 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230232</v>
@@ -26442,22 +26444,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>51722.33279362275</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.3327936228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362281</v>
+        <v>29303.54555230236</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.3327936228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362276</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,7 +26484,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26275.96473549679</v>
+        <v>-26275.96473549705</v>
       </c>
       <c r="C6" t="n">
-        <v>563691.9144790475</v>
+        <v>563691.9144790476</v>
       </c>
       <c r="D6" t="n">
-        <v>563691.9144790478</v>
+        <v>563691.9144790474</v>
       </c>
       <c r="E6" t="n">
-        <v>135607.2114975028</v>
+        <v>135607.2114975025</v>
       </c>
       <c r="F6" t="n">
         <v>660767.247974399</v>
       </c>
       <c r="G6" t="n">
-        <v>660767.2479743989</v>
+        <v>660767.2479743987</v>
       </c>
       <c r="H6" t="n">
-        <v>660767.2479743988</v>
+        <v>660767.247974399</v>
       </c>
       <c r="I6" t="n">
         <v>660767.2479743988</v>
       </c>
       <c r="J6" t="n">
-        <v>484344.0287818057</v>
+        <v>484344.0287818061</v>
       </c>
       <c r="K6" t="n">
-        <v>617098.8191469242</v>
+        <v>660767.2479743985</v>
       </c>
       <c r="L6" t="n">
-        <v>671604.3312506363</v>
+        <v>660767.2479743988</v>
       </c>
       <c r="M6" t="n">
-        <v>536803.3160167993</v>
+        <v>525966.2327405617</v>
       </c>
       <c r="N6" t="n">
-        <v>671604.3312506363</v>
+        <v>660767.247974399</v>
       </c>
       <c r="O6" t="n">
-        <v>671604.3312506365</v>
+        <v>660767.2479743988</v>
       </c>
       <c r="P6" t="n">
-        <v>660767.2479743987</v>
+        <v>660767.2479743988</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26750,25 +26752,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964044</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>132.2758992500985</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>116.9667170707707</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>123.134006632638</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>14.70855841873873</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>29.87313520113517</v>
+        <v>105.3448503555367</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>78.21666338641576</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>72.60755131498749</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>94.64645185361684</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>13.84438010156418</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>271.2288285704794</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>98.94320068880734</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35504,13 +35506,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
         <v>59.8253897034981</v>
@@ -35729,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35741,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700194</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>264.7306875349194</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>590.488811868311</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>332.6095128747343</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520604</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595511</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095691</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.441731308613</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502434</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414413</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015153</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>437.8187244348076</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37634,16 +37636,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511729</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,13 +37864,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
@@ -37877,7 +37879,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>107.1571287550442</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520604</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595511</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.441731308613</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502434</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015153</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4230453.253502138</v>
+        <v>4223436.238610426</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>139.4753151345743</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>252.7643836076984</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33.2098875339526</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>120.2570633735995</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>107.8517837830694</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>69.0708624534348</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>55.72286606387029</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>213.6743229269902</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>270.6264399173907</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>374.4519878923196</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>15.05304567149832</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>240.7521808749671</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>207.0920728594998</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>215.7053919670787</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4346037011847</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.66409633701822</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>104.7919727697741</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>255.3303665522258</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>79.06553162826584</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>147.0038766127622</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>190.7955476484028</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560529</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>122.65197883716</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>161.6936634442302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>741.0268678743128</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>355.2386152760685</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>348.2931145268651</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1273.032026687597</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>882.8926947117852</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005474</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C4" t="n">
-        <v>473.4444960005474</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D4" t="n">
-        <v>323.3278565882116</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E4" t="n">
-        <v>175.4147630058185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F4" t="n">
-        <v>175.4147630058185</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>175.4147630058185</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>175.4147630058185</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005474</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1628.293017861605</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1259.330500921194</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>901.0648023144433</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>901.0648023144433</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>490.0788975248358</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2572.351853615953</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2572.351853615953</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2572.351853615953</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2572.351853615953</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>2198.886095354873</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>2014.892857925727</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>642.4263417632175</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="U7" t="n">
-        <v>512.2963347852319</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="V7" t="n">
-        <v>512.2963347852319</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>428.1379185813802</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1465.195303554219</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.195303554219</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.195303554219</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>683.5069684221791</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>428.8224802162921</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>428.8224802162921</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5062,28 +5062,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5126,19 +5126,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5232,19 +5232,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1055.812239387629</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>766.3950693506686</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3950693506686</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.3950693506686</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5275,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5299,25 +5299,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5363,16 +5363,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1281.032036247722</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>991.90339746128</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>737.2189092553931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>447.8017392184325</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300437</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>807.3465877976912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>638.4104048697843</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>638.4104048697843</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>490.4973112873912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>490.4973112873912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>322.3219896072118</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.787631771461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.9950526279309</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1420.467688399299</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1220.547678314851</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1220.547678314851</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1220.547678314851</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>965.863190108964</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>965.863190108964</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>965.863190108964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.0706109654338</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.5496456007323</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>710.6134626728254</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1281.990689574502</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1281.990689574502</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1281.990689574502</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V25" t="n">
-        <v>1281.990689574502</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W25" t="n">
-        <v>1281.990689574502</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X25" t="n">
-        <v>1281.990689574502</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y25" t="n">
-        <v>1061.198110430972</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>592.8217113586352</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1219.13208711157</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1219.13208711157</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>964.447598905683</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>675.0304288687223</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6545,22 +6545,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1150.507496218139</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1150.507496218139</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>895.8230080122524</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>895.8230080122524</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6791,13 +6791,13 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823782</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,37 +7402,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>657.1994242851239</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7672,22 +7672,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>306.114737013995</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>308.1251096272028</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>182.0340742867951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>104.6241510367947</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>11.38546244886086</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>79.43092547709125</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>5.842169091310524</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>36.47922466635144</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>32.30025606677455</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>93.12883721382917</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>142.4820294301234</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>74.54368444562706</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>61.34209567542524</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>103.0576765518772</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>124.8293348923608</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615059.3414682897</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>615059.3414682897</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
@@ -26328,34 +26328,34 @@
         <v>782058.1194754179</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="I2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="K2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="L2" t="n">
         <v>782058.1194754175</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="M2" t="n">
-        <v>782058.1194754179</v>
-      </c>
       <c r="N2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754173</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26450,7 +26450,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230236</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26275.96473549705</v>
+        <v>-26275.96473549679</v>
       </c>
       <c r="C6" t="n">
-        <v>563691.9144790476</v>
+        <v>563691.9144790475</v>
       </c>
       <c r="D6" t="n">
         <v>563691.9144790474</v>
       </c>
       <c r="E6" t="n">
-        <v>135607.2114975025</v>
+        <v>134632.6202377811</v>
       </c>
       <c r="F6" t="n">
-        <v>660767.247974399</v>
+        <v>659792.6567146772</v>
       </c>
       <c r="G6" t="n">
-        <v>660767.2479743987</v>
+        <v>659792.656714677</v>
       </c>
       <c r="H6" t="n">
-        <v>660767.247974399</v>
+        <v>659792.6567146769</v>
       </c>
       <c r="I6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.656714677</v>
       </c>
       <c r="J6" t="n">
-        <v>484344.0287818061</v>
+        <v>483369.4375220842</v>
       </c>
       <c r="K6" t="n">
-        <v>660767.2479743985</v>
+        <v>659792.6567146772</v>
       </c>
       <c r="L6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146769</v>
       </c>
       <c r="M6" t="n">
-        <v>525966.2327405617</v>
+        <v>524991.6414808398</v>
       </c>
       <c r="N6" t="n">
-        <v>660767.247974399</v>
+        <v>659792.6567146766</v>
       </c>
       <c r="O6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146769</v>
       </c>
       <c r="P6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.656714677</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26746,19 +26746,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>274.3088548862207</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>116.9667170707707</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>112.2111604889786</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.70855841873873</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>305.9323862377256</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>105.3448503555367</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>90.94232591628756</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>72.60755131498749</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>94.64645185361684</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>7.478382179942173</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>271.2288285704794</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35412,19 +35412,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
         <v>570.6060255109123</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700194</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>590.488811868311</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>332.6095128747343</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>462.3874039146955</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37159,16 +37159,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>437.8187244348076</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>410.0098272511729</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4223436.238610426</v>
+        <v>4228375.501459457</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>33.2098875339526</v>
+        <v>33.20988753395294</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>55.72286606387029</v>
+        <v>55.72286606387052</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>374.4519878923196</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>71.64540509163365</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.60408762095413</v>
+        <v>30.54110646053071</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002205</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>207.0920728594998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051992</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5731721124303</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>255.3303665522258</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>64.34190763938388</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>6.001675813423989</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>157.2425576766694</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F4" t="n">
         <v>517.0200655508536</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511405</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,22 +4731,22 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
         <v>642.4263417632175</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.314837422907</v>
+        <v>1253.251950079335</v>
       </c>
       <c r="C8" t="n">
-        <v>1215.352320482495</v>
+        <v>884.2894331389234</v>
       </c>
       <c r="D8" t="n">
-        <v>857.0866218757444</v>
+        <v>526.023734532173</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>140.2354819339287</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>1639.851790143457</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>548.59542564772</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374204</v>
+        <v>400.6823320653269</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951003</v>
+        <v>253.7923845674166</v>
       </c>
       <c r="G10" t="n">
-        <v>84.85620163951003</v>
+        <v>84.79258430574899</v>
       </c>
       <c r="H10" t="n">
-        <v>84.85620163951003</v>
+        <v>84.79258430574899</v>
       </c>
       <c r="I10" t="n">
-        <v>84.85620163951003</v>
+        <v>84.79258430574899</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600558</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5071,22 +5071,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5105,37 +5105,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5199,49 +5199,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028584</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5463,10 +5463,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
         <v>869.3083006011506</v>
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5515,52 +5515,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.100589228384</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1271.100589228384</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>981.9719504419425</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>981.9719504419425</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
@@ -5752,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5977,25 +5977,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6004,16 +6004,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1017.221394183544</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>762.5369059776569</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>473.1197359406963</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155872</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
@@ -6487,28 +6487,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="30">
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6663,10 +6663,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1203.725332970022</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>914.3081629330617</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>914.3081629330617</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>914.3081629330617</v>
       </c>
     </row>
     <row r="35">
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7602,13 +7602,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1340.085404217832</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1050.956765431391</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>796.2722772255036</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270198</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>422.28657940933</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627383</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776707</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,13 +9646,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.3938331833827</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43092547709125</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.34763787117298</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>30.90698584635157</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>187.7957356844441</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>246.135967510404</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>64.30500338171987</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642832</v>
@@ -26322,40 +26322,40 @@
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="H2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="K2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="L2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="M2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="N2" t="n">
         <v>782058.1194754179</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="H2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="K2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="L2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="M2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="N2" t="n">
-        <v>782058.1194754173</v>
-      </c>
-      <c r="O2" t="n">
-        <v>782058.1194754175</v>
-      </c>
       <c r="P2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26490,13 +26490,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26505,7 +26505,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26275.96473549679</v>
+        <v>-26275.96473549702</v>
       </c>
       <c r="C6" t="n">
         <v>563691.9144790475</v>
       </c>
       <c r="D6" t="n">
-        <v>563691.9144790474</v>
+        <v>563691.9144790476</v>
       </c>
       <c r="E6" t="n">
-        <v>134632.6202377811</v>
+        <v>135509.7523715289</v>
       </c>
       <c r="F6" t="n">
-        <v>659792.6567146772</v>
+        <v>660669.7888484276</v>
       </c>
       <c r="G6" t="n">
-        <v>659792.656714677</v>
+        <v>660669.7888484269</v>
       </c>
       <c r="H6" t="n">
-        <v>659792.6567146769</v>
+        <v>660669.7888484267</v>
       </c>
       <c r="I6" t="n">
-        <v>659792.656714677</v>
+        <v>660669.7888484267</v>
       </c>
       <c r="J6" t="n">
-        <v>483369.4375220842</v>
+        <v>484246.5696558335</v>
       </c>
       <c r="K6" t="n">
-        <v>659792.6567146772</v>
+        <v>660669.7888484267</v>
       </c>
       <c r="L6" t="n">
-        <v>659792.6567146769</v>
+        <v>660669.7888484265</v>
       </c>
       <c r="M6" t="n">
-        <v>524991.6414808398</v>
+        <v>525868.7736145895</v>
       </c>
       <c r="N6" t="n">
-        <v>659792.6567146766</v>
+        <v>660669.7888484269</v>
       </c>
       <c r="O6" t="n">
-        <v>659792.6567146769</v>
+        <v>660669.7888484265</v>
       </c>
       <c r="P6" t="n">
-        <v>659792.656714677</v>
+        <v>660669.7888484267</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26773,7 +26773,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370153</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>112.2111604889786</v>
+        <v>112.2111604889783</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>90.94232591628756</v>
+        <v>90.9423259162873</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>7.478382179942173</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>335.2306406500778</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>14.59587156758288</v>
+        <v>14.65885272800632</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>486.0228424856238</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951412</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.502597509196</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
